--- a/output/LUAD_statistics_terminal respiratory unit (TRU, branchoid).xlsx
+++ b/output/LUAD_statistics_terminal respiratory unit (TRU, branchoid).xlsx
@@ -57,39 +57,39 @@
     <t>30</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -180,58 +180,58 @@
     <t>Mutation TP53</t>
   </si>
   <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
+    <t>Mutation SETD2</t>
+  </si>
+  <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS_TP53</t>
+  </si>
+  <si>
     <t>Pattern OR_CDK4_TP53</t>
   </si>
   <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
     <t>Mutation STK11</t>
   </si>
   <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS_TP53</t>
-  </si>
-  <si>
-    <t>Mutation SETD2</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDKN2A</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Pattern XOR_MDM2</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
+    <t>Mutation BRAF</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation MTOR</t>
+  </si>
+  <si>
     <t>Pattern OR_EGFR</t>
   </si>
   <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Mutation ARID1B</t>
+  </si>
+  <si>
     <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Pattern XOR_MDM2</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
-    <t>Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation MTOR</t>
   </si>
   <si>
     <t>Mutation EGFR</t>
@@ -443,7 +443,7 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
         <v>28.0</v>
@@ -484,40 +484,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="E3" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.00103438931083437</v>
       </c>
       <c r="G3" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>0.00107035486579256</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00623673460934464</v>
+        <v>0.0121313410421027</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.12</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.213333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -534,34 +534,34 @@
         <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00107035486579256</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G4" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>0.00163014680095507</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>0.00572662185627649</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -575,40 +575,40 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.422385476115507</v>
+        <v>0.219618626062171</v>
       </c>
       <c r="G5" t="n">
         <v>0.00107035486579256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00334292842162115</v>
+        <v>0.00304389315789462</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.12266666666666667</v>
+        <v>0.15333333333333332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02065591117977289</v>
+        <v>0.014401645996461914</v>
       </c>
       <c r="M5" t="n">
-        <v>0.114666666666667</v>
+        <v>0.158666666666667</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0143329026636419</v>
+        <v>0.00983819716496829</v>
       </c>
     </row>
     <row r="6">
@@ -616,40 +616,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="E6" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00107035486579256</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0121313410421027</v>
+        <v>0.0098445541818106</v>
       </c>
       <c r="I6" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.12</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.12</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -663,37 +663,37 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00103438931083437</v>
+        <v>9.76150746274996E-4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00163014680095507</v>
+        <v>0.0217264009961122</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00572662185627649</v>
+        <v>0.0286116253239541</v>
       </c>
       <c r="I7" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -704,43 +704,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0</v>
+        <v>28.0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00104629233105653</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G8" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>2.91375291375291E-4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0.00623673460934464</v>
       </c>
       <c r="I8" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.214666666666667</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0.00421637021355783</v>
       </c>
     </row>
     <row r="9">
@@ -748,19 +748,19 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.00104629233105653</v>
       </c>
       <c r="G9" t="n">
         <v>5.28787541966261E-4</v>
@@ -769,19 +769,19 @@
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -792,43 +792,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" t="n">
-        <v>9.0</v>
+        <v>42.0</v>
       </c>
       <c r="E10" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.219618626062171</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00107035486579256</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00304389315789462</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.15466666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L10" t="n">
-        <v>0.011243653902820908</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.145333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N10" t="n">
-        <v>0.018270937592084</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.00107035486579256</v>
       </c>
       <c r="G11" t="n">
         <v>5.28787541966261E-4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0098445541818106</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -883,40 +883,40 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>9.76150746274996E-4</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0217264009961122</v>
+        <v>0.00107035486579256</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0286116253239541</v>
+        <v>4.31528250060311E-4</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04</v>
+        <v>0.22266666666666668</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0</v>
+        <v>0.01783324679799012</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0426666666666667</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="N12" t="n">
-        <v>0.00843274042711568</v>
+        <v>0.0261052002766016</v>
       </c>
     </row>
     <row r="13">
@@ -927,22 +927,22 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E13" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.422385476115507</v>
       </c>
       <c r="G13" t="n">
         <v>0.00107035486579256</v>
       </c>
       <c r="H13" t="n">
-        <v>4.31528250060311E-4</v>
+        <v>0.00334292842162115</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -951,16 +951,16 @@
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.22533333333333333</v>
+        <v>0.116</v>
       </c>
       <c r="L13" t="n">
-        <v>0.024705674861666305</v>
+        <v>0.008999314102807368</v>
       </c>
       <c r="M13" t="n">
-        <v>0.234666666666667</v>
+        <v>0.122666666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>0.022835969028738</v>
+        <v>0.0151372323252679</v>
       </c>
     </row>
     <row r="14">
@@ -1323,7 +1323,7 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1587,7 +1587,7 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1631,7 +1631,7 @@
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1807,7 +1807,7 @@
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1875,10 +1875,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" t="n">
-        <v>0.62</v>
+        <v>0.6186666666666667</v>
       </c>
       <c r="L34" t="n">
-        <v>0.026851213274654603</v>
+        <v>0.015650503877030247</v>
       </c>
       <c r="M34" t="e">
         <v>#NUM!</v>
@@ -2139,10 +2139,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" t="n">
-        <v>0.552</v>
+        <v>0.5293333333333333</v>
       </c>
       <c r="L40" t="n">
-        <v>0.051524895097562445</v>
+        <v>0.030176435905365253</v>
       </c>
       <c r="M40" t="e">
         <v>#NUM!</v>
@@ -2227,10 +2227,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6293333333333333</v>
+        <v>0.624</v>
       </c>
       <c r="L42" t="n">
-        <v>0.030012343139794003</v>
+        <v>0.05472264523243158</v>
       </c>
       <c r="M42" t="e">
         <v>#NUM!</v>
@@ -2296,13 +2296,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
         <v>28.0</v>
@@ -2340,43 +2340,43 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="E3" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.00103438931083437</v>
       </c>
       <c r="G3" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>0.00107035486579256</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00623673460934464</v>
+        <v>0.0121313410421027</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.12</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.213333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -2393,34 +2393,34 @@
         <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00107035486579256</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G4" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>0.00163014680095507</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>0.00572662185627649</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -2434,81 +2434,81 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.422385476115507</v>
+        <v>0.219618626062171</v>
       </c>
       <c r="G5" t="n">
         <v>0.00107035486579256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00334292842162115</v>
+        <v>0.00304389315789462</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.12266666666666667</v>
+        <v>0.15333333333333332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02065591117977289</v>
+        <v>0.014401645996461914</v>
       </c>
       <c r="M5" t="n">
-        <v>0.12</v>
+        <v>0.142666666666667</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0188561808316413</v>
+        <v>0.0227058484879019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="E6" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00107035486579256</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0121313410421027</v>
+        <v>0.0098445541818106</v>
       </c>
       <c r="I6" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.12</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.12</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -2522,37 +2522,37 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00103438931083437</v>
+        <v>9.76150746274996E-4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00163014680095507</v>
+        <v>0.0217264009961122</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00572662185627649</v>
+        <v>0.0286116253239541</v>
       </c>
       <c r="I7" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -2560,43 +2560,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0</v>
+        <v>28.0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00104629233105653</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G8" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>2.91375291375291E-4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0.00623673460934464</v>
       </c>
       <c r="I8" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.213333333333333</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -2607,19 +2607,19 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.00104629233105653</v>
       </c>
       <c r="G9" t="n">
         <v>5.28787541966261E-4</v>
@@ -2628,19 +2628,19 @@
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -2651,43 +2651,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" t="n">
-        <v>9.0</v>
+        <v>42.0</v>
       </c>
       <c r="E10" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.219618626062171</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00107035486579256</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00304389315789462</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.15466666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L10" t="n">
-        <v>0.011243653902820908</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.154666666666667</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0112436539028209</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -2695,40 +2695,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.00107035486579256</v>
       </c>
       <c r="G11" t="n">
         <v>5.28787541966261E-4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0098445541818106</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -2736,43 +2736,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F12" t="n">
-        <v>9.76150746274996E-4</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0217264009961122</v>
+        <v>0.0105825248549754</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0286116253239541</v>
+        <v>0.0482601644669945</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -2780,28 +2780,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00102257159400898</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0105825248549754</v>
+        <v>0.00107035486579256</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0482601644669945</v>
+        <v>0.012993803859934</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -2810,13 +2810,13 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.17333333333333334</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0933333333333333</v>
+        <v>0.173333333333333</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -2824,19 +2824,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="E14" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0010108390316258</v>
@@ -2845,7 +2845,7 @@
         <v>0.00107035486579256</v>
       </c>
       <c r="H14" t="n">
-        <v>0.012993803859934</v>
+        <v>0.0239886230046369</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -2854,13 +2854,13 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.17333333333333334</v>
+        <v>0.08</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.173333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -2868,46 +2868,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D15" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="E15" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.5</v>
       </c>
       <c r="G15" t="n">
         <v>0.00107035486579256</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0239886230046369</v>
+        <v>4.31528250060311E-4</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08</v>
+        <v>0.22266666666666668</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>0.01783324679799012</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08</v>
+        <v>0.218666666666667</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>0.0179986282056147</v>
       </c>
     </row>
     <row r="16">
@@ -2918,22 +2918,22 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D16" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0.422385476115507</v>
       </c>
       <c r="G16" t="n">
         <v>0.00107035486579256</v>
       </c>
       <c r="H16" t="n">
-        <v>4.31528250060311E-4</v>
+        <v>0.00334292842162115</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -2942,16 +2942,16 @@
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.22533333333333333</v>
+        <v>0.116</v>
       </c>
       <c r="L16" t="n">
-        <v>0.024705674861666305</v>
+        <v>0.008999314102807368</v>
       </c>
       <c r="M16" t="n">
-        <v>0.230666666666667</v>
+        <v>0.117333333333333</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0208936164862989</v>
+        <v>0.0175541490294502</v>
       </c>
     </row>
     <row r="17">
@@ -3003,7 +3003,7 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>86</v>
@@ -3036,10 +3036,10 @@
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.117333333333333</v>
+        <v>0.118666666666667</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0137706074531819</v>
+        <v>0.0132590523468234</v>
       </c>
     </row>
     <row r="19">
@@ -3314,7 +3314,7 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -3490,7 +3490,7 @@
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -3534,7 +3534,7 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -3710,7 +3710,7 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -3778,10 +3778,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K35" t="n">
-        <v>0.62</v>
+        <v>0.6186666666666667</v>
       </c>
       <c r="L35" t="n">
-        <v>0.026851213274654603</v>
+        <v>0.015650503877030247</v>
       </c>
       <c r="M35" t="e">
         <v>#NUM!</v>
@@ -4042,10 +4042,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.552</v>
+        <v>0.5293333333333333</v>
       </c>
       <c r="L41" t="n">
-        <v>0.051524895097562445</v>
+        <v>0.030176435905365253</v>
       </c>
       <c r="M41" t="e">
         <v>#NUM!</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
@@ -4130,10 +4130,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K43" t="n">
-        <v>0.6293333333333333</v>
+        <v>0.624</v>
       </c>
       <c r="L43" t="n">
-        <v>0.030012343139794003</v>
+        <v>0.05472264523243158</v>
       </c>
       <c r="M43" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_terminal respiratory unit (TRU, branchoid).xlsx
+++ b/output/LUAD_statistics_terminal respiratory unit (TRU, branchoid).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="114">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,63 +54,66 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
-    <t>4</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -126,9 +129,6 @@
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -177,46 +177,64 @@
     <t>40</t>
   </si>
   <si>
+    <t>Mutation BRAF</t>
+  </si>
+  <si>
     <t>Mutation TP53</t>
   </si>
   <si>
+    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
+  </si>
+  <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
+    <t>Pattern OR_KRAS_TP53</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
     <t>Mutation SETD2</t>
   </si>
   <si>
-    <t>Mutation KEAP1</t>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
   </si>
   <si>
     <t>Pattern OR_EGFR_KRAS</t>
   </si>
   <si>
-    <t>Pattern OR_KRAS_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Mutation PIK3CA</t>
   </si>
   <si>
     <t>Pattern OR_CDKN2A</t>
   </si>
   <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
   </si>
   <si>
     <t>Pattern XOR_MDM2</t>
   </si>
   <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
+    <t>Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
   </si>
   <si>
     <t>Mutation MTOR</t>
@@ -225,30 +243,18 @@
     <t>Pattern OR_EGFR</t>
   </si>
   <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
     <t>Mutation ARID1A</t>
   </si>
   <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
     <t>Amplification RIT1</t>
   </si>
   <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
     <t>Mutation ALK</t>
   </si>
   <si>
@@ -270,9 +276,6 @@
     <t>Mutation NF1</t>
   </si>
   <si>
-    <t>Mutation PIK3CA</t>
-  </si>
-  <si>
     <t>Mutation RBM10</t>
   </si>
   <si>
@@ -291,9 +294,6 @@
     <t>Pattern OR_KRAS</t>
   </si>
   <si>
-    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
-  </si>
-  <si>
     <t>Pattern OR_MDM2_TP53</t>
   </si>
   <si>
@@ -342,7 +342,19 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
 </sst>
 </file>
@@ -443,40 +455,40 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00102257159400898</v>
+        <v>6.20074023387592E-21</v>
       </c>
       <c r="G2" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>1.45783066745265E-25</v>
       </c>
       <c r="H2" t="n">
-        <v>1.28392416164513E-4</v>
+        <v>0.0109286597035005</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>65.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.06933333333333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>0.008432740427115679</v>
       </c>
       <c r="M2" t="n">
-        <v>0.213333333333333</v>
+        <v>0.0733333333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>0.0113311544746506</v>
       </c>
     </row>
     <row r="3">
@@ -487,40 +499,40 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="E3" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00103438931083437</v>
+        <v>7.35080237255436E-36</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00107035486579256</v>
+        <v>4.05543077883597E-37</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0121313410421027</v>
+        <v>0.00456354646623406</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>57.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.12</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.12</v>
+        <v>0.214666666666667</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.00421637021355783</v>
       </c>
     </row>
     <row r="4">
@@ -528,40 +540,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>19.0</v>
+        <v>50.0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00103438931083437</v>
+        <v>1.20731106707383E-37</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00163014680095507</v>
+        <v>1.1991523572597E-42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00572662185627649</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08</v>
+        <v>0.17333333333333334</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08</v>
+        <v>0.173333333333333</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -572,43 +584,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.219618626062171</v>
+        <v>9.92528587042388E-38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00107035486579256</v>
+        <v>6.71564256562182E-42</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00304389315789462</v>
+        <v>0.0168456127360237</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.15333333333333332</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L5" t="n">
-        <v>0.014401645996461914</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.158666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00983819716496829</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -616,40 +628,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0010108390316258</v>
+        <v>2.70365822715286E-37</v>
       </c>
       <c r="G6" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>2.2238139442054E-33</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0098445541818106</v>
+        <v>0.0401585373030482</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0</v>
+        <v>45.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.08</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -663,37 +675,37 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F7" t="n">
-        <v>9.76150746274996E-4</v>
+        <v>5.09214169513866E-35</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0217264009961122</v>
+        <v>2.38594268997474E-32</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0286116253239541</v>
+        <v>0.051170564058715</v>
       </c>
       <c r="I7" t="n">
-        <v>60.0</v>
+        <v>45.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -704,43 +716,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0</v>
+        <v>42.0</v>
       </c>
       <c r="E8" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00103438931083437</v>
+        <v>1.04073301824199E-37</v>
       </c>
       <c r="G8" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>6.69841436103924E-42</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00623673460934464</v>
+        <v>0.0557724230114738</v>
       </c>
       <c r="I8" t="n">
-        <v>60.0</v>
+        <v>44.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.214666666666667</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00421637021355783</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -748,43 +760,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
-        <v>37.0</v>
+        <v>10.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00104629233105653</v>
+        <v>6.70448390122093E-5</v>
       </c>
       <c r="G9" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>1.00580620840839E-34</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>0.00573521053143348</v>
       </c>
       <c r="I9" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.11333333333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>0.009428090415820628</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.121333333333333</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0</v>
+        <v>0.0171557858361056</v>
       </c>
     </row>
     <row r="10">
@@ -792,40 +804,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="E10" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0010108390316258</v>
+        <v>9.35084501892474E-38</v>
       </c>
       <c r="G10" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>2.48361298049528E-35</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0.00112304084906825</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -836,40 +848,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" t="n">
-        <v>31.0</v>
+        <v>8.0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00107035486579256</v>
+        <v>1.61719524245036E-32</v>
       </c>
       <c r="G11" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>4.48604056660378E-25</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>8.2932247315809E-4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0</v>
+        <v>0.021081851067789197</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -880,43 +892,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E12" t="n">
         <v>16.0</v>
       </c>
-      <c r="E12" t="n">
-        <v>15.0</v>
-      </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>1.85202582840407E-35</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00107035486579256</v>
+        <v>7.14429547860267E-35</v>
       </c>
       <c r="H12" t="n">
-        <v>4.31528250060311E-4</v>
+        <v>0.0210441976407366</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.22266666666666668</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01783324679799012</v>
+        <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.233333333333333</v>
+        <v>0.213333333333333</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0261052002766016</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -927,40 +939,40 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E13" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.422385476115507</v>
+        <v>0.213170815884384</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00107035486579256</v>
+        <v>4.22628831548358E-33</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00334292842162115</v>
+        <v>0.00971996700091193</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.116</v>
+        <v>0.15866666666666668</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008999314102807368</v>
+        <v>0.02305120440869323</v>
       </c>
       <c r="M13" t="n">
-        <v>0.122666666666667</v>
+        <v>0.154666666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0151372323252679</v>
+        <v>0.0168654808542314</v>
       </c>
     </row>
     <row r="14">
@@ -971,40 +983,40 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J14" t="e">
-        <v>#NUM!</v>
+        <v>76</v>
+      </c>
+      <c r="D14" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.12296011750049E-37</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.72254597812315E-42</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.00984455418181059</v>
+      </c>
+      <c r="I14" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
-      <c r="M14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N14" t="e">
-        <v>#NUM!</v>
+      <c r="M14" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -1012,43 +1024,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J15" t="e">
-        <v>#NUM!</v>
+        <v>77</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.11957491748673E-11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.56435874734269E-18</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0300999629766753</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.060000000000000005</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N15" t="e">
-        <v>#NUM!</v>
+        <v>0.011331154474650633</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0586666666666667</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.00932274531706801</v>
       </c>
     </row>
     <row r="16">
@@ -1056,43 +1068,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#NUM!</v>
+        <v>78</v>
+      </c>
+      <c r="D16" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.06263533083058E-37</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.71003864987233E-42</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
-      <c r="M16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N16" t="e">
-        <v>#NUM!</v>
+      <c r="M16" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -1100,10 +1112,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -1127,7 +1139,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K17" t="n">
-        <v>0.17333333333333334</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -1144,10 +1156,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -1188,10 +1200,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -1232,10 +1244,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1276,10 +1288,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1303,7 +1315,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -1320,10 +1332,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1347,7 +1359,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.04</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -1364,10 +1376,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1391,7 +1403,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -1408,10 +1420,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1452,10 +1464,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1479,7 +1491,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -1496,10 +1508,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1523,7 +1535,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -1540,10 +1552,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1584,10 +1596,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1628,10 +1640,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1672,10 +1684,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1716,10 +1728,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1760,10 +1772,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1804,10 +1816,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>60</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1848,10 +1860,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -1875,10 +1887,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6186666666666667</v>
+        <v>0.6293333333333333</v>
       </c>
       <c r="L34" t="n">
-        <v>0.015650503877030247</v>
+        <v>0.029346798256389636</v>
       </c>
       <c r="M34" t="e">
         <v>#NUM!</v>
@@ -1892,10 +1904,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -1936,10 +1948,10 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -1980,10 +1992,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2024,10 +2036,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2068,10 +2080,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -2112,7 +2124,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
         <v>93</v>
@@ -2139,10 +2151,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5293333333333333</v>
+        <v>0.5933333333333334</v>
       </c>
       <c r="L40" t="n">
-        <v>0.030176435905365253</v>
+        <v>0.04714045207910319</v>
       </c>
       <c r="M40" t="e">
         <v>#NUM!</v>
@@ -2156,7 +2168,7 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
         <v>94</v>
@@ -2200,7 +2212,7 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>95</v>
@@ -2227,10 +2239,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.624</v>
+        <v>0.632</v>
       </c>
       <c r="L42" t="n">
-        <v>0.05472264523243158</v>
+        <v>0.030274464650535814</v>
       </c>
       <c r="M42" t="e">
         <v>#NUM!</v>
@@ -2296,131 +2308,131 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00102257159400898</v>
+        <v>6.20074023387592E-21</v>
       </c>
       <c r="G2" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>1.45783066745265E-25</v>
       </c>
       <c r="H2" t="n">
-        <v>1.28392416164513E-4</v>
+        <v>0.0109286597035005</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>65.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.06933333333333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>0.008432740427115679</v>
       </c>
       <c r="M2" t="n">
-        <v>0.213333333333333</v>
+        <v>0.068</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>0.00421637021355784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="E3" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00103438931083437</v>
+        <v>7.35080237255436E-36</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00107035486579256</v>
+        <v>4.05543077883597E-37</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0121313410421027</v>
+        <v>0.00456354646623406</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>57.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.12</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.12</v>
+        <v>0.216</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.00562182695141044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>19.0</v>
+        <v>50.0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00103438931083437</v>
+        <v>1.20731106707383E-37</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00163014680095507</v>
+        <v>1.1991523572597E-42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00572662185627649</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08</v>
+        <v>0.17333333333333334</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08</v>
+        <v>0.173333333333333</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -2428,46 +2440,46 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.219618626062171</v>
+        <v>9.92528587042388E-38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00107035486579256</v>
+        <v>6.71564256562182E-42</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00304389315789462</v>
+        <v>0.0168456127360237</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.15333333333333332</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L5" t="n">
-        <v>0.014401645996461914</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.142666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0227058484879019</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -2475,40 +2487,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0010108390316258</v>
+        <v>2.70365822715286E-37</v>
       </c>
       <c r="G6" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>2.2238139442054E-33</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0098445541818106</v>
+        <v>0.0401585373030482</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0</v>
+        <v>45.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.08</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -2516,43 +2528,43 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F7" t="n">
-        <v>9.76150746274996E-4</v>
+        <v>5.09214169513866E-35</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0217264009961122</v>
+        <v>2.38594268997474E-32</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0286116253239541</v>
+        <v>0.051170564058715</v>
       </c>
       <c r="I7" t="n">
-        <v>60.0</v>
+        <v>45.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -2560,43 +2572,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0</v>
+        <v>42.0</v>
       </c>
       <c r="E8" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00103438931083437</v>
+        <v>1.04073301824199E-37</v>
       </c>
       <c r="G8" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>6.69841436103924E-42</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00623673460934464</v>
+        <v>0.0557724230114738</v>
       </c>
       <c r="I8" t="n">
-        <v>60.0</v>
+        <v>44.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.213333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -2604,46 +2616,46 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
-        <v>37.0</v>
+        <v>10.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00104629233105653</v>
+        <v>6.70448390122093E-5</v>
       </c>
       <c r="G9" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>1.00580620840839E-34</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
+        <v>0.00573521053143348</v>
       </c>
       <c r="I9" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.11333333333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>0.009428090415820628</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.124</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0</v>
+        <v>0.0178332467979901</v>
       </c>
     </row>
     <row r="10">
@@ -2651,40 +2663,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="E10" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0010108390316258</v>
+        <v>9.35084501892474E-38</v>
       </c>
       <c r="G10" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>2.48361298049528E-35</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0.00112304084906825</v>
       </c>
       <c r="I10" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -2692,43 +2704,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" t="n">
-        <v>31.0</v>
+        <v>8.0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00107035486579256</v>
+        <v>1.61719524245036E-32</v>
       </c>
       <c r="G11" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>4.48604056660378E-25</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>8.2932247315809E-4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0</v>
+        <v>0.021081851067789197</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -2736,43 +2748,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="E12" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00102257159400898</v>
+        <v>1.85202582840407E-35</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0105825248549754</v>
+        <v>7.14429547860267E-35</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0482601644669945</v>
+        <v>0.0210441976407366</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0933333333333333</v>
+        <v>0.213333333333333</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -2780,87 +2792,87 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
       <c r="D13" t="n">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="E13" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.213170815884384</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00107035486579256</v>
+        <v>4.22628831548358E-33</v>
       </c>
       <c r="H13" t="n">
-        <v>0.012993803859934</v>
+        <v>0.00971996700091193</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.17333333333333334</v>
+        <v>0.15866666666666668</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>0.02305120440869323</v>
       </c>
       <c r="M13" t="n">
-        <v>0.173333333333333</v>
+        <v>0.154666666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>0.0190645427462464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0010108390316258</v>
+        <v>1.12296011750049E-37</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00107035486579256</v>
+        <v>6.72254597812315E-42</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0239886230046369</v>
+        <v>0.00984455418181059</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -2868,116 +2880,116 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D15" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>1.11957491748673E-11</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00107035486579256</v>
+        <v>1.56435874734269E-18</v>
       </c>
       <c r="H15" t="n">
-        <v>4.31528250060311E-4</v>
+        <v>0.0300999629766753</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.22266666666666668</v>
+        <v>0.060000000000000005</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01783324679799012</v>
+        <v>0.011331154474650633</v>
       </c>
       <c r="M15" t="n">
-        <v>0.218666666666667</v>
+        <v>0.0546666666666667</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0179986282056147</v>
+        <v>0.00421637021355784</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D16" t="n">
-        <v>10.0</v>
+        <v>37.0</v>
       </c>
       <c r="E16" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.422385476115507</v>
+        <v>1.06263533083058E-37</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00107035486579256</v>
+        <v>6.71003864987233E-42</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00334292842162115</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.116</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008999314102807368</v>
+        <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.117333333333333</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0175541490294502</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D17" t="n">
-        <v>50.0</v>
+        <v>9.0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.42223262082747E-4</v>
+        <v>8.32590048410769E-6</v>
       </c>
       <c r="G17" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>1.30760069139237E-17</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>0.195639690727142</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -2986,13 +2998,13 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -3000,28 +3012,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D18" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="E18" t="n">
         <v>7.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.258426596952735</v>
+        <v>3.64614060065039E-37</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00105828080128529</v>
+        <v>1.16078346317873E-31</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0233782910912993</v>
+        <v>0.0767528435749794</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -3036,36 +3048,36 @@
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.118666666666667</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0132590523468234</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D19" t="n">
-        <v>50.0</v>
+        <v>21.0</v>
       </c>
       <c r="E19" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00103438931083437</v>
+        <v>1.33629325839006E-37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00521644509146</v>
+        <v>2.28990192386103E-32</v>
       </c>
       <c r="H19" t="n">
-        <v>0.250475827940617</v>
+        <v>0.0482601644669945</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -3074,13 +3086,13 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.08</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0933333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -3088,34 +3100,34 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J20" t="e">
-        <v>#NUM!</v>
+        <v>70</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.62614922560197E-4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.50283697394093E-4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0204492163396273</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0</v>
       </c>
       <c r="K20" t="n">
         <v>0.05333333333333334</v>
@@ -3123,242 +3135,242 @@
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
-      <c r="M20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N20" t="e">
-        <v>#NUM!</v>
+      <c r="M20" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J21" t="e">
-        <v>#NUM!</v>
+        <v>60</v>
+      </c>
+      <c r="D21" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.53289577859909E-36</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.08266623475589E-32</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0432713916589802</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.2</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
       </c>
-      <c r="M21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N21" t="e">
-        <v>#NUM!</v>
+      <c r="M21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J22" t="e">
-        <v>#NUM!</v>
+        <v>83</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.93854725510489E-22</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.46851319362243E-7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0216660496112551</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
-      <c r="M22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N22" t="e">
-        <v>#NUM!</v>
+      <c r="M22" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J23" t="e">
-        <v>#NUM!</v>
+        <v>83</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.9706519179507E-22</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.96026236560323E-7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0216660496112551</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
       </c>
-      <c r="M23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N23" t="e">
-        <v>#NUM!</v>
+      <c r="M23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J24" t="e">
-        <v>#NUM!</v>
+        <v>74</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.4096800946115E-10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.55574842710965E-7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.189337282487968</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N24" t="e">
-        <v>#NUM!</v>
+        <v>0.021081851067789197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0413333333333333</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.00421637021355784</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J25" t="e">
-        <v>#NUM!</v>
+        <v>71</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0244816836257157</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.20021457105444E-8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.293715187011852</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.12</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
-      <c r="M25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N25" t="e">
-        <v>#NUM!</v>
+      <c r="M25" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -3382,7 +3394,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -3396,13 +3408,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -3426,7 +3438,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -3440,13 +3452,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -3470,7 +3482,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -3484,13 +3496,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -3514,7 +3526,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
@@ -3528,13 +3540,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -3558,7 +3570,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
@@ -3572,13 +3584,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -3602,7 +3614,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" t="n">
-        <v>0.37333333333333335</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
@@ -3616,10 +3628,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>87</v>
@@ -3646,7 +3658,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" t="n">
-        <v>0.36</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -3660,13 +3672,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -3690,7 +3702,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
@@ -3704,13 +3716,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -3734,7 +3746,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" t="n">
-        <v>0.41333333333333333</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
@@ -3748,13 +3760,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -3778,10 +3790,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6186666666666667</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="L35" t="n">
-        <v>0.015650503877030247</v>
+        <v>0.0</v>
       </c>
       <c r="M35" t="e">
         <v>#NUM!</v>
@@ -3792,13 +3804,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -3822,7 +3834,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K36" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
@@ -3836,13 +3848,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -3866,7 +3878,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
@@ -3880,14 +3892,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
         <v>63</v>
       </c>
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
       </c>
@@ -3910,7 +3922,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" t="n">
-        <v>0.28</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
@@ -3924,13 +3936,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -3954,10 +3966,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6293333333333333</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0</v>
+        <v>0.029346798256389636</v>
       </c>
       <c r="M39" t="e">
         <v>#NUM!</v>
@@ -3968,13 +3980,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -4012,13 +4024,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -4042,10 +4054,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5293333333333333</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="L41" t="n">
-        <v>0.030176435905365253</v>
+        <v>0.0</v>
       </c>
       <c r="M41" t="e">
         <v>#NUM!</v>
@@ -4056,13 +4068,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -4086,7 +4098,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.38666666666666666</v>
+        <v>0.28</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
@@ -4100,45 +4112,221 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N43" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N44" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.5933333333333334</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.04714045207910319</v>
+      </c>
+      <c r="M45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N45" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N46" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
         <v>95</v>
       </c>
-      <c r="D43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.624</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.05472264523243158</v>
-      </c>
-      <c r="M43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N43" t="e">
+      <c r="D47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.030274464650535814</v>
+      </c>
+      <c r="M47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N47" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics_terminal respiratory unit (TRU, branchoid).xlsx
+++ b/output/LUAD_statistics_terminal respiratory unit (TRU, branchoid).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LUAD-bic" r:id="rId3" sheetId="1"/>
-    <sheet name="LUAD-aic" r:id="rId4" sheetId="2"/>
+    <sheet name="LUAD-bic" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LUAD-aic" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,84 +55,183 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutation KEAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutation MTOR</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplification KRAS</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern OR_CDKN2A</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern OR_EGFR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern OR_EGFR_KRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutation KRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplification MDM2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern OR_KRAS_TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutation CDKN2A</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
-    <t>4</t>
+    <t xml:space="preserve">Pattern XOR_MDM2</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t xml:space="preserve">Mutation SETD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutation BRAF</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation EGFR</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation STK11</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplification CDK4</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t xml:space="preserve">Amplification EGFR</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t xml:space="preserve">Amplification RIT1</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t xml:space="preserve">Deletion CDKN2A</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation ALK</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation ARID2</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation ATM</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation ERBB2</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation MDM2</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation MET</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation NF1</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation PIK3CA</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutation RBM10</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -144,9 +244,15 @@
     <t>27</t>
   </si>
   <si>
+    <t xml:space="preserve">Pattern OR_BRAF_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
+    <t xml:space="preserve">Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
@@ -156,151 +262,46 @@
     <t>33</t>
   </si>
   <si>
+    <t xml:space="preserve">Pattern OR_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
+    <t xml:space="preserve">Pattern OR_EGFR_STK11</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
+    <t xml:space="preserve">Pattern OR_KRAS</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
+    <t xml:space="preserve">Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
+    <t xml:space="preserve">Pattern OR_MDM2_TP53</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
+    <t xml:space="preserve">Pattern OR_STK11_EGFR_ERBB2</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Mutation SETD2</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Pattern XOR_MDM2</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation MTOR</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation ALK</t>
-  </si>
-  <si>
-    <t>Mutation ARID2</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation ERBB2</t>
-  </si>
-  <si>
-    <t>Mutation MDM2</t>
-  </si>
-  <si>
-    <t>Mutation MET</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
-    <t>Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation RBM10</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_STK11</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
-  </si>
-  <si>
-    <t>Pattern OR_MDM2_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_STK11_EGFR_ERBB2</t>
-  </si>
-  <si>
-    <t>Pattern OR_STK11_TP53</t>
+    <t xml:space="preserve">Pattern OR_STK11_TP53</t>
   </si>
   <si>
     <t>capri_aic.SELECTS</t>
@@ -348,14 +349,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -364,7 +363,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -377,24 +376,459 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill/>
+        <a:solidFill/>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="22.421875"/>
+    <col customWidth="1" min="3" max="3" width="24.00390625"/>
+    <col customWidth="1" min="4" max="4" width="21.00390625"/>
+    <col bestFit="1" min="5" max="5" width="23.7109375"/>
+    <col bestFit="1" min="6" max="6" width="29.421875"/>
+    <col bestFit="1" min="7" max="7" width="30.00390625"/>
+    <col bestFit="1" min="8" max="8" width="27.28125"/>
+    <col bestFit="1" min="9" max="9" width="24.28125"/>
+    <col bestFit="1" min="10" max="10" width="21.00390625"/>
+    <col bestFit="1" min="11" max="11" width="25.00390625"/>
+    <col bestFit="1" min="12" max="12" width="22.00390625"/>
+    <col bestFit="1" min="13" max="13" width="25.00390625"/>
+    <col bestFit="1" min="14" max="14" width="22.00390625"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -440,538 +874,538 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00102257159400898</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.91375291375291E-4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.28392416164513E-4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.21333333333333335</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.213333333333333</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0</v>
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0.00097615074627499597</v>
+      </c>
+      <c r="G2">
+        <v>0.0217264009961122</v>
+      </c>
+      <c r="H2">
+        <v>0.028611625323954101</v>
+      </c>
+      <c r="I2">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00103438931083437</v>
-      </c>
-      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>0.00107035486579256</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0121313410421027</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
+      <c r="G3">
+        <v>0.000528787541966261</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>0.066666666666666666</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.066666666666666693</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00103438931083437</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00163014680095507</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.00572662185627649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0</v>
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0.0010225715940089799</v>
+      </c>
+      <c r="G4">
+        <v>0.000291375291375291</v>
+      </c>
+      <c r="H4">
+        <v>0.00012839241616451299</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>0.21600000000000003</v>
+      </c>
+      <c r="L4">
+        <v>0.0084327404271156703</v>
+      </c>
+      <c r="M4">
+        <v>0.21466666666666701</v>
+      </c>
+      <c r="N4">
+        <v>0.0098381971649682907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.219618626062171</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.00107035486579256</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.00304389315789462</v>
-      </c>
-      <c r="I5" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.15333333333333332</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.014401645996461914</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.158666666666667</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.00983819716496829</v>
+      <c r="F5">
+        <v>0.0010343893108343701</v>
+      </c>
+      <c r="G5">
+        <v>0.000291375291375291</v>
+      </c>
+      <c r="H5">
+        <v>0.0062367346093446397</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.21333333333333299</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0010108390316258</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.28787541966261E-4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0098445541818106</v>
-      </c>
-      <c r="I6" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0533333333333333</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0</v>
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.0010462923310565299</v>
+      </c>
+      <c r="G6">
+        <v>0.000528787541966261</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>0.053333333333333337</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.053333333333333302</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9.76150746274996E-4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0217264009961122</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0286116253239541</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.0</v>
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0.0010343893108343701</v>
+      </c>
+      <c r="G7">
+        <v>0.0016301468009550699</v>
+      </c>
+      <c r="H7">
+        <v>0.0057266218562764901</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00103438931083437</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.91375291375291E-4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.00623673460934464</v>
-      </c>
-      <c r="I8" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.21333333333333335</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.214666666666667</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.00421637021355783</v>
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0.0010108390316258</v>
+      </c>
+      <c r="G8">
+        <v>0.000528787541966261</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>0.066666666666666666</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.066666666666666693</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.00104629233105653</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.28787541966261E-4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0533333333333333</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0</v>
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0.0010108390316258</v>
+      </c>
+      <c r="G9">
+        <v>0.000528787541966261</v>
+      </c>
+      <c r="H9">
+        <v>0.0098445541818105997</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>0.053333333333333337</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.053333333333333302</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0010108390316258</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.28787541966261E-4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0</v>
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0.0010343893108343701</v>
+      </c>
+      <c r="G10">
+        <v>0.00107035486579256</v>
+      </c>
+      <c r="H10">
+        <v>0.0121313410421027</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>0.12</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.12</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F11" t="n">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>0.219618626062171</v>
+      </c>
+      <c r="G11">
         <v>0.00107035486579256</v>
       </c>
-      <c r="G11" t="n">
-        <v>5.28787541966261E-4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0</v>
+      <c r="H11">
+        <v>0.0030438931578946199</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>0.15733333333333333</v>
+      </c>
+      <c r="L11">
+        <v>0.017554149029450225</v>
+      </c>
+      <c r="M11">
+        <v>0.14933333333333301</v>
+      </c>
+      <c r="N11">
+        <v>0.018645490634136001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="F12" t="n">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
         <v>0.5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.00107035486579256</v>
       </c>
-      <c r="H12" t="n">
-        <v>4.31528250060311E-4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.22266666666666668</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.01783324679799012</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.233333333333333</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0261052002766016</v>
+      <c r="H12">
+        <v>0.00043152825006031098</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>0.224</v>
+      </c>
+      <c r="L12">
+        <v>0.021591036091539766</v>
+      </c>
+      <c r="M12">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.014124665406285101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.422385476115507</v>
-      </c>
-      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0.42238547611550697</v>
+      </c>
+      <c r="G13">
         <v>0.00107035486579256</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.00334292842162115</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.008999314102807368</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.122666666666667</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.0151372323252679</v>
+      <c r="H13">
+        <v>0.0033429284216211501</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>0.12933333333333333</v>
+      </c>
+      <c r="L13">
+        <v>0.020893616486298946</v>
+      </c>
+      <c r="M13">
+        <v>0.12666666666666701</v>
+      </c>
+      <c r="N13">
+        <v>0.0169239402352531</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D14" t="e">
         <v>#NUM!</v>
@@ -994,11 +1428,11 @@
       <c r="J14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0</v>
+      <c r="K14">
+        <v>0.053333333333333337</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
       <c r="M14" t="e">
         <v>#NUM!</v>
@@ -1009,13 +1443,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -1038,11 +1472,11 @@
       <c r="J15" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.0</v>
+      <c r="K15">
+        <v>0.053333333333333337</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>
@@ -1053,13 +1487,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -1082,11 +1516,11 @@
       <c r="J16" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.09333333333333334</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.0</v>
+      <c r="K16">
+        <v>0.093333333333333338</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
       </c>
       <c r="M16" t="e">
         <v>#NUM!</v>
@@ -1097,13 +1531,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -1126,11 +1560,11 @@
       <c r="J17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>0.17333333333333334</v>
       </c>
-      <c r="L17" t="n">
-        <v>0.0</v>
+      <c r="L17">
+        <v>0</v>
       </c>
       <c r="M17" t="e">
         <v>#NUM!</v>
@@ -1141,13 +1575,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -1170,11 +1604,11 @@
       <c r="J18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K18" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0</v>
+      <c r="K18">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
       </c>
       <c r="M18" t="e">
         <v>#NUM!</v>
@@ -1185,13 +1619,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -1214,11 +1648,11 @@
       <c r="J19" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0</v>
+      <c r="K19">
+        <v>0.053333333333333337</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
       </c>
       <c r="M19" t="e">
         <v>#NUM!</v>
@@ -1229,13 +1663,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1258,11 +1692,11 @@
       <c r="J20" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K20" t="n">
-        <v>0.09333333333333334</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.0</v>
+      <c r="K20">
+        <v>0.093333333333333338</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -1273,13 +1707,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1302,11 +1736,11 @@
       <c r="J21" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.0</v>
+      <c r="K21">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21" t="e">
         <v>#NUM!</v>
@@ -1317,13 +1751,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1346,11 +1780,11 @@
       <c r="J22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>0.25333333333333335</v>
       </c>
-      <c r="L22" t="n">
-        <v>0.0</v>
+      <c r="L22">
+        <v>0</v>
       </c>
       <c r="M22" t="e">
         <v>#NUM!</v>
@@ -1361,14 +1795,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
       </c>
@@ -1390,11 +1824,11 @@
       <c r="J23" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.0</v>
+      <c r="K23">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
       </c>
       <c r="M23" t="e">
         <v>#NUM!</v>
@@ -1405,13 +1839,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1434,11 +1868,11 @@
       <c r="J24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.0</v>
+      <c r="K24">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -1449,13 +1883,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1478,11 +1912,11 @@
       <c r="J25" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.09333333333333334</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.0</v>
+      <c r="K25">
+        <v>0.093333333333333338</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1493,13 +1927,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1522,11 +1956,11 @@
       <c r="J26" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K26" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0</v>
+      <c r="K26">
+        <v>0.066666666666666666</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>
@@ -1537,13 +1971,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1566,11 +2000,11 @@
       <c r="J27" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K27" t="n">
-        <v>0.09333333333333334</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.0</v>
+      <c r="K27">
+        <v>0.093333333333333338</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
       </c>
       <c r="M27" t="e">
         <v>#NUM!</v>
@@ -1581,13 +2015,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1610,11 +2044,11 @@
       <c r="J28" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>0.12</v>
       </c>
-      <c r="L28" t="n">
-        <v>0.0</v>
+      <c r="L28">
+        <v>0</v>
       </c>
       <c r="M28" t="e">
         <v>#NUM!</v>
@@ -1625,13 +2059,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1654,11 +2088,11 @@
       <c r="J29" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>0.13333333333333333</v>
       </c>
-      <c r="L29" t="n">
-        <v>0.0</v>
+      <c r="L29">
+        <v>0</v>
       </c>
       <c r="M29" t="e">
         <v>#NUM!</v>
@@ -1669,13 +2103,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1698,11 +2132,11 @@
       <c r="J30" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>0.37333333333333335</v>
       </c>
-      <c r="L30" t="n">
-        <v>0.0</v>
+      <c r="L30">
+        <v>0</v>
       </c>
       <c r="M30" t="e">
         <v>#NUM!</v>
@@ -1713,13 +2147,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1742,11 +2176,11 @@
       <c r="J31" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K31" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.0</v>
+      <c r="K31">
+        <v>0.35999999999999999</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
       </c>
       <c r="M31" t="e">
         <v>#NUM!</v>
@@ -1757,13 +2191,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1786,11 +2220,11 @@
       <c r="J32" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K32" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.0</v>
+      <c r="K32">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -1801,13 +2235,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1830,11 +2264,11 @@
       <c r="J33" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>0.41333333333333333</v>
       </c>
-      <c r="L33" t="n">
-        <v>0.0</v>
+      <c r="L33">
+        <v>0</v>
       </c>
       <c r="M33" t="e">
         <v>#NUM!</v>
@@ -1845,13 +2279,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -1874,11 +2308,11 @@
       <c r="J34" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K34" t="n">
-        <v>0.6186666666666667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.015650503877030247</v>
+      <c r="K34">
+        <v>0.62133333333333329</v>
+      </c>
+      <c r="L34">
+        <v>0.031552425509864632</v>
       </c>
       <c r="M34" t="e">
         <v>#NUM!</v>
@@ -1889,13 +2323,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -1918,11 +2352,11 @@
       <c r="J35" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>0.44</v>
       </c>
-      <c r="L35" t="n">
-        <v>0.0</v>
+      <c r="L35">
+        <v>0</v>
       </c>
       <c r="M35" t="e">
         <v>#NUM!</v>
@@ -1933,13 +2367,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -1962,11 +2396,11 @@
       <c r="J36" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K36" t="n">
-        <v>0.3466666666666667</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.0</v>
+      <c r="K36">
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
       </c>
       <c r="M36" t="e">
         <v>#NUM!</v>
@@ -1977,13 +2411,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2006,11 +2440,11 @@
       <c r="J37" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K37" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.0</v>
+      <c r="K37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
       </c>
       <c r="M37" t="e">
         <v>#NUM!</v>
@@ -2021,13 +2455,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2050,11 +2484,11 @@
       <c r="J38" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K38" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0</v>
+      <c r="K38">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
       </c>
       <c r="M38" t="e">
         <v>#NUM!</v>
@@ -2065,13 +2499,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -2094,11 +2528,11 @@
       <c r="J39" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>0.44</v>
       </c>
-      <c r="L39" t="n">
-        <v>0.0</v>
+      <c r="L39">
+        <v>0</v>
       </c>
       <c r="M39" t="e">
         <v>#NUM!</v>
@@ -2109,13 +2543,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -2138,11 +2572,11 @@
       <c r="J40" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K40" t="n">
-        <v>0.5293333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.030176435905365253</v>
+      <c r="K40">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="L40">
+        <v>0.058033621587558197</v>
       </c>
       <c r="M40" t="e">
         <v>#NUM!</v>
@@ -2153,13 +2587,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2182,11 +2616,11 @@
       <c r="J41" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>0.38666666666666666</v>
       </c>
-      <c r="L41" t="n">
-        <v>0.0</v>
+      <c r="L41">
+        <v>0</v>
       </c>
       <c r="M41" t="e">
         <v>#NUM!</v>
@@ -2197,10 +2631,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>95</v>
@@ -2226,11 +2660,11 @@
       <c r="J42" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K42" t="n">
-        <v>0.624</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.05472264523243158</v>
+      <c r="K42">
+        <v>0.63866666666666672</v>
+      </c>
+      <c r="L42">
+        <v>0.034683756471336313</v>
       </c>
       <c r="M42" t="e">
         <v>#NUM!</v>
@@ -2240,20 +2674,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
       <c r="B1" t="s">
         <v>96</v>
       </c>
@@ -2296,805 +2733,805 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00102257159400898</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.91375291375291E-4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.28392416164513E-4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.21333333333333335</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.213333333333333</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0</v>
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0.00097615074627499597</v>
+      </c>
+      <c r="G2">
+        <v>0.0217264009961122</v>
+      </c>
+      <c r="H2">
+        <v>0.028611625323954101</v>
+      </c>
+      <c r="I2">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00103438931083437</v>
-      </c>
-      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>0.00107035486579256</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.0121313410421027</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
+      <c r="G3">
+        <v>0.000528787541966261</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>0.066666666666666666</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.066666666666666693</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00103438931083437</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00163014680095507</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.00572662185627649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0</v>
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0.0010225715940089799</v>
+      </c>
+      <c r="G4">
+        <v>0.000291375291375291</v>
+      </c>
+      <c r="H4">
+        <v>0.00012839241616451299</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>0.21600000000000003</v>
+      </c>
+      <c r="L4">
+        <v>0.0084327404271156703</v>
+      </c>
+      <c r="M4">
+        <v>0.21466666666666701</v>
+      </c>
+      <c r="N4">
+        <v>0.0042163702135578299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.219618626062171</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.00107035486579256</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.00304389315789462</v>
-      </c>
-      <c r="I5" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.15333333333333332</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.014401645996461914</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.142666666666667</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0227058484879019</v>
+      <c r="F5">
+        <v>0.0010343893108343701</v>
+      </c>
+      <c r="G5">
+        <v>0.000291375291375291</v>
+      </c>
+      <c r="H5">
+        <v>0.0062367346093446397</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.21333333333333299</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0010108390316258</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.28787541966261E-4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0098445541818106</v>
-      </c>
-      <c r="I6" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0533333333333333</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0</v>
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.0010462923310565299</v>
+      </c>
+      <c r="G6">
+        <v>0.000528787541966261</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>0.053333333333333337</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.053333333333333302</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9.76150746274996E-4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0217264009961122</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0286116253239541</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.0</v>
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0.0010343893108343701</v>
+      </c>
+      <c r="G7">
+        <v>0.0016301468009550699</v>
+      </c>
+      <c r="H7">
+        <v>0.0057266218562764901</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00103438931083437</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.91375291375291E-4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.00623673460934464</v>
-      </c>
-      <c r="I8" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.21333333333333335</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.213333333333333</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0</v>
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0.0010108390316258</v>
+      </c>
+      <c r="G8">
+        <v>0.000528787541966261</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>0.066666666666666666</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.066666666666666693</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.00104629233105653</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.28787541966261E-4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0533333333333333</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0</v>
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0.0010108390316258</v>
+      </c>
+      <c r="G9">
+        <v>0.000528787541966261</v>
+      </c>
+      <c r="H9">
+        <v>0.0098445541818105997</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>0.053333333333333337</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.053333333333333302</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0010108390316258</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.28787541966261E-4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0</v>
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0.0010343893108343701</v>
+      </c>
+      <c r="G10">
+        <v>0.00107035486579256</v>
+      </c>
+      <c r="H10">
+        <v>0.0121313410421027</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>0.12</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.12</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.00107035486579256</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.28787541966261E-4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0</v>
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0.0010225715940089799</v>
+      </c>
+      <c r="G11">
+        <v>0.010582524854975401</v>
+      </c>
+      <c r="H11">
+        <v>0.0482601644669945</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.093333333333333338</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.093333333333333296</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.00102257159400898</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0105825248549754</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0482601644669945</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.09333333333333334</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.0933333333333333</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>0.0010108390316258</v>
+      </c>
+      <c r="G12">
+        <v>0.00107035486579256</v>
+      </c>
+      <c r="H12">
+        <v>0.012993803859934001</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.17333333333333301</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
         <v>0.0010108390316258</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.00107035486579256</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.012993803859934</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.17333333333333334</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.173333333333333</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.0</v>
+      <c r="H13">
+        <v>0.023988623004636899</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0010108390316258</v>
-      </c>
-      <c r="G14" t="n">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>0.219618626062171</v>
+      </c>
+      <c r="G14">
         <v>0.00107035486579256</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.0239886230046369</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.0</v>
+      <c r="H14">
+        <v>0.0030438931578946199</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>0.15733333333333333</v>
+      </c>
+      <c r="L14">
+        <v>0.017554149029450225</v>
+      </c>
+      <c r="M14">
+        <v>0.15733333333333299</v>
+      </c>
+      <c r="N14">
+        <v>0.0084327404271156807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="F15" t="n">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
         <v>0.5</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.00107035486579256</v>
       </c>
-      <c r="H15" t="n">
-        <v>4.31528250060311E-4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.22266666666666668</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.01783324679799012</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.218666666666667</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.0179986282056147</v>
+      <c r="H15">
+        <v>0.00043152825006031098</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>0.224</v>
+      </c>
+      <c r="L15">
+        <v>0.021591036091539766</v>
+      </c>
+      <c r="M15">
+        <v>0.229333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.021591036091539801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.422385476115507</v>
-      </c>
-      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>0.42238547611550697</v>
+      </c>
+      <c r="G16">
         <v>0.00107035486579256</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.00334292842162115</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.008999314102807368</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.117333333333333</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.0175541490294502</v>
+      <c r="H16">
+        <v>0.0033429284216211501</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>0.12933333333333333</v>
+      </c>
+      <c r="L16">
+        <v>0.020893616486298946</v>
+      </c>
+      <c r="M16">
+        <v>0.121333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.0132590523468234</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9.42223262082747E-4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5.28787541966261E-4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.0</v>
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0.00094222326208274695</v>
+      </c>
+      <c r="G17">
+        <v>0.000528787541966261</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.066666666666666666</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.066666666666666693</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.258426596952735</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.00105828080128529</v>
-      </c>
-      <c r="H18" t="n">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>0.25842659695273501</v>
+      </c>
+      <c r="G18">
+        <v>0.0010582808012852901</v>
+      </c>
+      <c r="H18">
         <v>0.0233782910912993</v>
       </c>
-      <c r="I18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.09333333333333334</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.118666666666667</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0132590523468234</v>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.093333333333333338</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.109333333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.010517475169954899</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.00103438931083437</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.00521644509146</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.250475827940617</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.09333333333333334</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.0933333333333333</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.0</v>
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>0.0010343893108343701</v>
+      </c>
+      <c r="G19">
+        <v>0.0052164450914600003</v>
+      </c>
+      <c r="H19">
+        <v>0.25047582794061701</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.093333333333333338</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.093333333333333296</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -3117,11 +3554,11 @@
       <c r="J20" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K20" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.0</v>
+      <c r="K20">
+        <v>0.053333333333333337</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -3132,13 +3569,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -3161,11 +3598,11 @@
       <c r="J21" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.0</v>
+      <c r="K21">
+        <v>0.053333333333333337</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21" t="e">
         <v>#NUM!</v>
@@ -3176,13 +3613,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -3205,11 +3642,11 @@
       <c r="J22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K22" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.0</v>
+      <c r="K22">
+        <v>0.053333333333333337</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
       </c>
       <c r="M22" t="e">
         <v>#NUM!</v>
@@ -3220,13 +3657,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -3249,11 +3686,11 @@
       <c r="J23" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K23" t="n">
-        <v>0.09333333333333334</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.0</v>
+      <c r="K23">
+        <v>0.093333333333333338</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
       </c>
       <c r="M23" t="e">
         <v>#NUM!</v>
@@ -3264,13 +3701,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -3293,11 +3730,11 @@
       <c r="J24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.0</v>
+      <c r="K24">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -3308,13 +3745,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -3337,11 +3774,11 @@
       <c r="J25" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>0.25333333333333335</v>
       </c>
-      <c r="L25" t="n">
-        <v>0.0</v>
+      <c r="L25">
+        <v>0</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -3352,14 +3789,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
       </c>
@@ -3381,11 +3818,11 @@
       <c r="J26" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K26" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0</v>
+      <c r="K26">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>
@@ -3396,13 +3833,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -3425,11 +3862,11 @@
       <c r="J27" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K27" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.0</v>
+      <c r="K27">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
       </c>
       <c r="M27" t="e">
         <v>#NUM!</v>
@@ -3440,13 +3877,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -3469,11 +3906,11 @@
       <c r="J28" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K28" t="n">
-        <v>0.09333333333333334</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.0</v>
+      <c r="K28">
+        <v>0.093333333333333338</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
       </c>
       <c r="M28" t="e">
         <v>#NUM!</v>
@@ -3484,13 +3921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -3513,11 +3950,11 @@
       <c r="J29" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>0.12</v>
       </c>
-      <c r="L29" t="n">
-        <v>0.0</v>
+      <c r="L29">
+        <v>0</v>
       </c>
       <c r="M29" t="e">
         <v>#NUM!</v>
@@ -3528,13 +3965,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -3557,11 +3994,11 @@
       <c r="J30" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>0.13333333333333333</v>
       </c>
-      <c r="L30" t="n">
-        <v>0.0</v>
+      <c r="L30">
+        <v>0</v>
       </c>
       <c r="M30" t="e">
         <v>#NUM!</v>
@@ -3572,13 +4009,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -3601,11 +4038,11 @@
       <c r="J31" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>0.37333333333333335</v>
       </c>
-      <c r="L31" t="n">
-        <v>0.0</v>
+      <c r="L31">
+        <v>0</v>
       </c>
       <c r="M31" t="e">
         <v>#NUM!</v>
@@ -3616,13 +4053,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -3645,11 +4082,11 @@
       <c r="J32" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K32" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.0</v>
+      <c r="K32">
+        <v>0.35999999999999999</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -3660,13 +4097,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -3689,11 +4126,11 @@
       <c r="J33" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K33" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.0</v>
+      <c r="K33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
       </c>
       <c r="M33" t="e">
         <v>#NUM!</v>
@@ -3704,13 +4141,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -3733,11 +4170,11 @@
       <c r="J34" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>0.41333333333333333</v>
       </c>
-      <c r="L34" t="n">
-        <v>0.0</v>
+      <c r="L34">
+        <v>0</v>
       </c>
       <c r="M34" t="e">
         <v>#NUM!</v>
@@ -3748,13 +4185,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -3777,11 +4214,11 @@
       <c r="J35" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K35" t="n">
-        <v>0.6186666666666667</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.015650503877030247</v>
+      <c r="K35">
+        <v>0.62133333333333329</v>
+      </c>
+      <c r="L35">
+        <v>0.031552425509864632</v>
       </c>
       <c r="M35" t="e">
         <v>#NUM!</v>
@@ -3792,13 +4229,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -3821,11 +4258,11 @@
       <c r="J36" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>0.44</v>
       </c>
-      <c r="L36" t="n">
-        <v>0.0</v>
+      <c r="L36">
+        <v>0</v>
       </c>
       <c r="M36" t="e">
         <v>#NUM!</v>
@@ -3836,13 +4273,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -3865,11 +4302,11 @@
       <c r="J37" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K37" t="n">
-        <v>0.3466666666666667</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.0</v>
+      <c r="K37">
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
       </c>
       <c r="M37" t="e">
         <v>#NUM!</v>
@@ -3880,13 +4317,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -3909,11 +4346,11 @@
       <c r="J38" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K38" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0</v>
+      <c r="K38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
       </c>
       <c r="M38" t="e">
         <v>#NUM!</v>
@@ -3924,13 +4361,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -3953,11 +4390,11 @@
       <c r="J39" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.0</v>
+      <c r="K39">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
       </c>
       <c r="M39" t="e">
         <v>#NUM!</v>
@@ -3968,13 +4405,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -3997,11 +4434,11 @@
       <c r="J40" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>0.44</v>
       </c>
-      <c r="L40" t="n">
-        <v>0.0</v>
+      <c r="L40">
+        <v>0</v>
       </c>
       <c r="M40" t="e">
         <v>#NUM!</v>
@@ -4012,13 +4449,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -4041,11 +4478,11 @@
       <c r="J41" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K41" t="n">
-        <v>0.5293333333333333</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.030176435905365253</v>
+      <c r="K41">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="L41">
+        <v>0.058033621587558197</v>
       </c>
       <c r="M41" t="e">
         <v>#NUM!</v>
@@ -4056,13 +4493,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -4085,11 +4522,11 @@
       <c r="J42" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>0.38666666666666666</v>
       </c>
-      <c r="L42" t="n">
-        <v>0.0</v>
+      <c r="L42">
+        <v>0</v>
       </c>
       <c r="M42" t="e">
         <v>#NUM!</v>
@@ -4100,10 +4537,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
         <v>95</v>
@@ -4129,11 +4566,11 @@
       <c r="J43" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K43" t="n">
-        <v>0.624</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.05472264523243158</v>
+      <c r="K43">
+        <v>0.63866666666666672</v>
+      </c>
+      <c r="L43">
+        <v>0.034683756471336313</v>
       </c>
       <c r="M43" t="e">
         <v>#NUM!</v>
@@ -4143,6 +4580,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>